--- a/Code/Results/Cases/Case_5_154/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_154/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.246619161630747</v>
+        <v>0.9998340106875503</v>
       </c>
       <c r="C2">
-        <v>0.3779286343209947</v>
+        <v>0.2532704065238534</v>
       </c>
       <c r="D2">
-        <v>0.04027355235813701</v>
+        <v>0.02824048846233751</v>
       </c>
       <c r="E2">
-        <v>0.04420185264087584</v>
+        <v>0.1184694903237427</v>
       </c>
       <c r="F2">
-        <v>0.6332048692788064</v>
+        <v>0.8287855757083591</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1498435230182977</v>
+        <v>0.1886793512133664</v>
       </c>
       <c r="M2">
-        <v>0.3833657973108515</v>
+        <v>0.2225080754306177</v>
       </c>
       <c r="N2">
-        <v>0.743280458542344</v>
+        <v>1.376402873543597</v>
       </c>
       <c r="O2">
-        <v>1.871624390762207</v>
+        <v>2.873585931596779</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.952254531627972</v>
+        <v>0.9154134562347451</v>
       </c>
       <c r="C3">
-        <v>0.3473397359686601</v>
+        <v>0.2429535528171414</v>
       </c>
       <c r="D3">
-        <v>0.0369429182781289</v>
+        <v>0.0270744962661098</v>
       </c>
       <c r="E3">
-        <v>0.04568582332842297</v>
+        <v>0.1194771694375198</v>
       </c>
       <c r="F3">
-        <v>0.5840341277286996</v>
+        <v>0.8230670106637845</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1357651283667067</v>
+        <v>0.1860235826453902</v>
       </c>
       <c r="M3">
-        <v>0.3343424190330637</v>
+        <v>0.209200329540252</v>
       </c>
       <c r="N3">
-        <v>0.7764491928326329</v>
+        <v>1.390789325767411</v>
       </c>
       <c r="O3">
-        <v>1.757529486177475</v>
+        <v>2.869311570831997</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.772131128265244</v>
+        <v>0.8637903451067643</v>
       </c>
       <c r="C4">
-        <v>0.3285180660313074</v>
+        <v>0.236565522160376</v>
       </c>
       <c r="D4">
-        <v>0.03489067966837567</v>
+        <v>0.02635243062194093</v>
       </c>
       <c r="E4">
-        <v>0.04665209181321872</v>
+        <v>0.120133443549435</v>
       </c>
       <c r="F4">
-        <v>0.5550760381393118</v>
+        <v>0.820112033225648</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1272845635228208</v>
+        <v>0.1844843663126738</v>
       </c>
       <c r="M4">
-        <v>0.3044146758205173</v>
+        <v>0.2011066445347822</v>
       </c>
       <c r="N4">
-        <v>0.7979197846923647</v>
+        <v>1.400155429781734</v>
       </c>
       <c r="O4">
-        <v>1.691523377360937</v>
+        <v>2.868562608234498</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.698854818289902</v>
+        <v>0.8428078309320028</v>
       </c>
       <c r="C5">
-        <v>0.3208361804258573</v>
+        <v>0.2339490491903575</v>
       </c>
       <c r="D5">
-        <v>0.03405243902128063</v>
+        <v>0.0260566556715176</v>
       </c>
       <c r="E5">
-        <v>0.04705949027052103</v>
+        <v>0.1204103349571142</v>
       </c>
       <c r="F5">
-        <v>0.543565561389947</v>
+        <v>0.8190476355548952</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1238670406048925</v>
+        <v>0.1838801668474517</v>
       </c>
       <c r="M5">
-        <v>0.2922565918756774</v>
+        <v>0.1978280302640059</v>
       </c>
       <c r="N5">
-        <v>0.8069393714939821</v>
+        <v>1.404106192046054</v>
       </c>
       <c r="O5">
-        <v>1.665582427165788</v>
+        <v>2.868728632849013</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.686694078801509</v>
+        <v>0.8393270153734989</v>
       </c>
       <c r="C6">
-        <v>0.3195598386732712</v>
+        <v>0.2335137867595876</v>
       </c>
       <c r="D6">
-        <v>0.03391312942984115</v>
+        <v>0.02600745072112431</v>
       </c>
       <c r="E6">
-        <v>0.04712795578857243</v>
+        <v>0.1204568839050761</v>
       </c>
       <c r="F6">
-        <v>0.5416712201420211</v>
+        <v>0.8188793327823305</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1233018031135487</v>
+        <v>0.1837812332829003</v>
       </c>
       <c r="M6">
-        <v>0.2902398675158508</v>
+        <v>0.1972848097824595</v>
       </c>
       <c r="N6">
-        <v>0.8084531662629608</v>
+        <v>1.40477030729345</v>
       </c>
       <c r="O6">
-        <v>1.661331032916678</v>
+        <v>2.868784651350097</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.771142428658749</v>
+        <v>0.8635071461042685</v>
       </c>
       <c r="C7">
-        <v>0.3284145159818195</v>
+        <v>0.2365302891510765</v>
       </c>
       <c r="D7">
-        <v>0.03487938285860182</v>
+        <v>0.02634844785949397</v>
       </c>
       <c r="E7">
-        <v>0.04665753120327087</v>
+        <v>0.1201371395088096</v>
       </c>
       <c r="F7">
-        <v>0.5549196544073922</v>
+        <v>0.820097112548126</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1272383217858462</v>
+        <v>0.1844761244960509</v>
       </c>
       <c r="M7">
-        <v>0.3042505622969571</v>
+        <v>0.2010623482783416</v>
       </c>
       <c r="N7">
-        <v>0.7980403420311823</v>
+        <v>1.400208168545728</v>
       </c>
       <c r="O7">
-        <v>1.691169731807605</v>
+        <v>2.868562939805258</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.144975428511657</v>
+        <v>0.9706825803161792</v>
       </c>
       <c r="C8">
-        <v>0.3673887106155007</v>
+        <v>0.2497243277053229</v>
       </c>
       <c r="D8">
-        <v>0.0391265699585972</v>
+        <v>0.02783973895871128</v>
       </c>
       <c r="E8">
-        <v>0.04470195379295161</v>
+        <v>0.1188091501259581</v>
       </c>
       <c r="F8">
-        <v>0.6159826214856281</v>
+        <v>0.8266983059276853</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1449536162723604</v>
+        <v>0.1877446940578125</v>
       </c>
       <c r="M8">
-        <v>0.3664231000499356</v>
+        <v>0.2179036217923382</v>
       </c>
       <c r="N8">
-        <v>0.7544829851847368</v>
+        <v>1.381252765874144</v>
       </c>
       <c r="O8">
-        <v>1.831406460449671</v>
+        <v>2.871722630734695</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.884433220618348</v>
+        <v>1.182491285369963</v>
       </c>
       <c r="C9">
-        <v>0.4435940182098363</v>
+        <v>0.2751687732997539</v>
       </c>
       <c r="D9">
-        <v>0.04740441548848651</v>
+        <v>0.03071480266741844</v>
       </c>
       <c r="E9">
-        <v>0.04131456793414401</v>
+        <v>0.1165024395907093</v>
       </c>
       <c r="F9">
-        <v>0.746462632552678</v>
+        <v>0.844062936668692</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1811254844958299</v>
+        <v>0.194878148232867</v>
       </c>
       <c r="M9">
-        <v>0.489995658636424</v>
+        <v>0.251536570215201</v>
       </c>
       <c r="N9">
-        <v>0.6781977410227</v>
+        <v>1.348306900267978</v>
       </c>
       <c r="O9">
-        <v>2.141459134000371</v>
+        <v>2.892822084706154</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.433834794989821</v>
+        <v>1.339068263590605</v>
       </c>
       <c r="C10">
-        <v>0.4995932792274402</v>
+        <v>0.2935962198797597</v>
       </c>
       <c r="D10">
-        <v>0.05346530001946093</v>
+        <v>0.03279637627289844</v>
       </c>
       <c r="E10">
-        <v>0.03911345982204217</v>
+        <v>0.1149883120733781</v>
       </c>
       <c r="F10">
-        <v>0.8502866208373376</v>
+        <v>0.8595264885622527</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2087743302247702</v>
+        <v>0.2005588575999013</v>
       </c>
       <c r="M10">
-        <v>0.5822173517374694</v>
+        <v>0.2766111450380961</v>
       </c>
       <c r="N10">
-        <v>0.6282514196880555</v>
+        <v>1.326675052089094</v>
       </c>
       <c r="O10">
-        <v>2.394964996488909</v>
+        <v>2.917446675793911</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.685641301939654</v>
+        <v>1.41050093536569</v>
       </c>
       <c r="C11">
-        <v>0.5251074816851258</v>
+        <v>0.301920488724619</v>
       </c>
       <c r="D11">
-        <v>0.05622052344774886</v>
+        <v>0.03373653787130593</v>
       </c>
       <c r="E11">
-        <v>0.03817802794205338</v>
+        <v>0.1143385579396892</v>
       </c>
       <c r="F11">
-        <v>0.8995857835969474</v>
+        <v>0.8671514069051227</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2216334639954312</v>
+        <v>0.2032383865866905</v>
       </c>
       <c r="M11">
-        <v>0.6245850193151696</v>
+        <v>0.2880963012296078</v>
       </c>
       <c r="N11">
-        <v>0.6069816276658671</v>
+        <v>1.317392492080899</v>
       </c>
       <c r="O11">
-        <v>2.516913737267487</v>
+        <v>2.930638455276096</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.781312103106472</v>
+        <v>1.437579164946499</v>
       </c>
       <c r="C12">
-        <v>0.53477798425331</v>
+        <v>0.3050641451535796</v>
       </c>
       <c r="D12">
-        <v>0.05726379506417345</v>
+        <v>0.03409156606640096</v>
       </c>
       <c r="E12">
-        <v>0.03783358600429398</v>
+        <v>0.1140981144268727</v>
       </c>
       <c r="F12">
-        <v>0.9185819642676307</v>
+        <v>0.8701238267604623</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2265476215143423</v>
+        <v>0.2042667260072903</v>
       </c>
       <c r="M12">
-        <v>0.6406973794343784</v>
+        <v>0.2924565858272317</v>
       </c>
       <c r="N12">
-        <v>0.5991475615677189</v>
+        <v>1.313957642468516</v>
       </c>
       <c r="O12">
-        <v>2.564139051087295</v>
+        <v>2.935920541193383</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.760692796436615</v>
+        <v>1.431746148260913</v>
       </c>
       <c r="C13">
-        <v>0.532694823496314</v>
+        <v>0.3043874858347806</v>
       </c>
       <c r="D13">
-        <v>0.05703910763732978</v>
+        <v>0.0340151487519762</v>
       </c>
       <c r="E13">
-        <v>0.03790732729859236</v>
+        <v>0.1141496491175662</v>
       </c>
       <c r="F13">
-        <v>0.9144757203049352</v>
+        <v>0.869479879389047</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2254872123096305</v>
+        <v>0.2040446479903437</v>
       </c>
       <c r="M13">
-        <v>0.6372240924716834</v>
+        <v>0.2915170297711924</v>
       </c>
       <c r="N13">
-        <v>0.6008247730765746</v>
+        <v>1.314693828891187</v>
       </c>
       <c r="O13">
-        <v>2.55392015951918</v>
+        <v>2.934770192977822</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.693505559806169</v>
+        <v>1.412728119076348</v>
       </c>
       <c r="C14">
-        <v>0.5259028840712006</v>
+        <v>0.3021792917476489</v>
       </c>
       <c r="D14">
-        <v>0.05630635424834907</v>
+        <v>0.03376576621605665</v>
       </c>
       <c r="E14">
-        <v>0.03814949250437571</v>
+        <v>0.1143186642358565</v>
       </c>
       <c r="F14">
-        <v>0.9011418634651989</v>
+        <v>0.8673942448907184</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2220368340296943</v>
+        <v>0.2033227152142985</v>
       </c>
       <c r="M14">
-        <v>0.6259091637708636</v>
+        <v>0.2884548030377232</v>
       </c>
       <c r="N14">
-        <v>0.6063326284365402</v>
+        <v>1.31710829631718</v>
       </c>
       <c r="O14">
-        <v>2.520777471992631</v>
+        <v>2.931067268030972</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.652394186744004</v>
+        <v>1.401082665866568</v>
       </c>
       <c r="C15">
-        <v>0.5217438714739444</v>
+        <v>0.3008255892684986</v>
       </c>
       <c r="D15">
-        <v>0.05585751859946697</v>
+        <v>0.0336128826437232</v>
       </c>
       <c r="E15">
-        <v>0.03829910974875173</v>
+        <v>0.1144229204760743</v>
       </c>
       <c r="F15">
-        <v>0.8930180943290367</v>
+        <v>0.8661278103283507</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2199293265943112</v>
+        <v>0.2028822879688903</v>
       </c>
       <c r="M15">
-        <v>0.6189876582792451</v>
+        <v>0.2865805410885116</v>
       </c>
       <c r="N15">
-        <v>0.6097354049933585</v>
+        <v>1.318597679860268</v>
       </c>
       <c r="O15">
-        <v>2.500615713375566</v>
+        <v>2.928836463947505</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.417420402832533</v>
+        <v>1.334403988727388</v>
       </c>
       <c r="C16">
-        <v>0.4979269263955075</v>
+        <v>0.2930510194658211</v>
       </c>
       <c r="D16">
-        <v>0.05328521825764199</v>
+        <v>0.03273479691502246</v>
       </c>
       <c r="E16">
-        <v>0.03917594431747418</v>
+        <v>0.1150315597160443</v>
       </c>
       <c r="F16">
-        <v>0.8471089646858445</v>
+        <v>0.8590400742649393</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2079399727055886</v>
+        <v>0.2003856583486794</v>
       </c>
       <c r="M16">
-        <v>0.5794576312345328</v>
+        <v>0.2758621278752074</v>
       </c>
       <c r="N16">
-        <v>0.6296716293807592</v>
+        <v>1.327292917792221</v>
       </c>
       <c r="O16">
-        <v>2.387136510227577</v>
+        <v>2.916624646883719</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.273785415799694</v>
+        <v>1.293550397174499</v>
       </c>
       <c r="C17">
-        <v>0.4833283256405139</v>
+        <v>0.2882664864480375</v>
       </c>
       <c r="D17">
-        <v>0.05170684607971054</v>
+        <v>0.03219437568794348</v>
       </c>
       <c r="E17">
-        <v>0.03973094125609578</v>
+        <v>0.1154149308538646</v>
       </c>
       <c r="F17">
-        <v>0.8194958877910352</v>
+        <v>0.8548432971164885</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2006598918729736</v>
+        <v>0.1988784412296667</v>
       </c>
       <c r="M17">
-        <v>0.5553197840826769</v>
+        <v>0.2693067203457957</v>
       </c>
       <c r="N17">
-        <v>0.6422815604708987</v>
+        <v>1.332770071880859</v>
       </c>
       <c r="O17">
-        <v>2.319282147660061</v>
+        <v>2.909643114798371</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.191344411629416</v>
+        <v>1.270071864072975</v>
       </c>
       <c r="C18">
-        <v>0.4749351465599432</v>
+        <v>0.2855090555086974</v>
       </c>
       <c r="D18">
-        <v>0.05079881588419966</v>
+        <v>0.03188290485468315</v>
       </c>
       <c r="E18">
-        <v>0.04005634026818594</v>
+        <v>0.1156391099730074</v>
       </c>
       <c r="F18">
-        <v>0.8038063996244915</v>
+        <v>0.8524849927366915</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1964988123698959</v>
+        <v>0.1980205072332097</v>
       </c>
       <c r="M18">
-        <v>0.5414748754706196</v>
+        <v>0.2655436339572717</v>
       </c>
       <c r="N18">
-        <v>0.6496702910121286</v>
+        <v>1.335972893777637</v>
       </c>
       <c r="O18">
-        <v>2.280871977564004</v>
+        <v>2.905814794237386</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.163459833491856</v>
+        <v>1.262125801635136</v>
       </c>
       <c r="C19">
-        <v>0.4720938802644241</v>
+        <v>0.2845744979074993</v>
       </c>
       <c r="D19">
-        <v>0.05049133356907021</v>
+        <v>0.0317773377277959</v>
       </c>
       <c r="E19">
-        <v>0.04016756681808031</v>
+        <v>0.1157156444658929</v>
       </c>
       <c r="F19">
-        <v>0.7985264442686315</v>
+        <v>0.851696052074729</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1950943244858507</v>
+        <v>0.1977315689491945</v>
       </c>
       <c r="M19">
-        <v>0.536793587312701</v>
+        <v>0.2642707963951025</v>
       </c>
       <c r="N19">
-        <v>0.6521949747216951</v>
+        <v>1.337066331576068</v>
       </c>
       <c r="O19">
-        <v>2.267970353653311</v>
+        <v>2.904550739695537</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.289057266414147</v>
+        <v>1.297897335878531</v>
       </c>
       <c r="C20">
-        <v>0.4848819826736417</v>
+        <v>0.2887763779035311</v>
       </c>
       <c r="D20">
-        <v>0.0518748849837749</v>
+        <v>0.03225197029040316</v>
       </c>
       <c r="E20">
-        <v>0.03967121911370697</v>
+        <v>0.1153737401375583</v>
       </c>
       <c r="F20">
-        <v>0.8224151793683916</v>
+        <v>0.8552842989633973</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2014321247183375</v>
+        <v>0.1990379583027675</v>
       </c>
       <c r="M20">
-        <v>0.5578852478992928</v>
+        <v>0.2700037891322395</v>
       </c>
       <c r="N20">
-        <v>0.6409250716927488</v>
+        <v>1.332181584900418</v>
       </c>
       <c r="O20">
-        <v>2.326440762734251</v>
+        <v>2.910366925250315</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.713231082349637</v>
+        <v>1.418313419164519</v>
       </c>
       <c r="C21">
-        <v>0.5278975756330908</v>
+        <v>0.3028281255290608</v>
       </c>
       <c r="D21">
-        <v>0.05652158192869905</v>
+        <v>0.03383904294741313</v>
       </c>
       <c r="E21">
-        <v>0.03807809452726474</v>
+        <v>0.1142688683651514</v>
       </c>
       <c r="F21">
-        <v>0.9050491965974174</v>
+        <v>0.8680045376944179</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.223049046091063</v>
+        <v>0.2035343940470682</v>
       </c>
       <c r="M21">
-        <v>0.6292306953506284</v>
+        <v>0.289353953445719</v>
       </c>
       <c r="N21">
-        <v>0.6047087605024046</v>
+        <v>1.316396930345135</v>
       </c>
       <c r="O21">
-        <v>2.530483119673505</v>
+        <v>2.932147123433481</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.992326123833209</v>
+        <v>1.497176238783595</v>
       </c>
       <c r="C22">
-        <v>0.5560638555116384</v>
+        <v>0.3119617681347506</v>
       </c>
       <c r="D22">
-        <v>0.05955815579712009</v>
+        <v>0.03487050392575952</v>
       </c>
       <c r="E22">
-        <v>0.03709409455823653</v>
+        <v>0.1135794330497495</v>
       </c>
       <c r="F22">
-        <v>0.9609807862818229</v>
+        <v>0.8768136165092386</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2374395751086809</v>
+        <v>0.2065526718714779</v>
       </c>
       <c r="M22">
-        <v>0.6762638133927226</v>
+        <v>0.302065042221912</v>
       </c>
       <c r="N22">
-        <v>0.5823296665950437</v>
+        <v>1.306548548254383</v>
       </c>
       <c r="O22">
-        <v>2.669981640116532</v>
+        <v>2.948052759101927</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.843180070905703</v>
+        <v>1.455071080470532</v>
       </c>
       <c r="C23">
-        <v>0.5410250237426055</v>
+        <v>0.3070915963349137</v>
       </c>
       <c r="D23">
-        <v>0.0579374362175713</v>
+        <v>0.03432052917937511</v>
       </c>
       <c r="E23">
-        <v>0.03761393117292311</v>
+        <v>0.1139444117434643</v>
       </c>
       <c r="F23">
-        <v>0.9309423095453724</v>
+        <v>0.8720666524777698</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2297335795113611</v>
+        <v>0.2049344937795468</v>
       </c>
       <c r="M23">
-        <v>0.6511211984255141</v>
+        <v>0.2952750460107012</v>
       </c>
       <c r="N23">
-        <v>0.5941516605625523</v>
+        <v>1.311761999376259</v>
       </c>
       <c r="O23">
-        <v>2.594933805937217</v>
+        <v>2.939410560490671</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.282152440558662</v>
+        <v>1.29593205756845</v>
       </c>
       <c r="C24">
-        <v>0.4841795753353324</v>
+        <v>0.2885458769583238</v>
       </c>
       <c r="D24">
-        <v>0.05179891648857193</v>
+        <v>0.03222593418452391</v>
       </c>
       <c r="E24">
-        <v>0.03969819982042022</v>
+        <v>0.1153923507044112</v>
       </c>
       <c r="F24">
-        <v>0.8210947916773392</v>
+        <v>0.8550847523390104</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2010829227616426</v>
+        <v>0.1989658138887052</v>
       </c>
       <c r="M24">
-        <v>0.5567253018847538</v>
+        <v>0.2696886265495309</v>
       </c>
       <c r="N24">
-        <v>0.6415379078367991</v>
+        <v>1.332447471864882</v>
       </c>
       <c r="O24">
-        <v>2.323202490291123</v>
+        <v>2.910039112895078</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.683486720948224</v>
+        <v>1.125019938851722</v>
       </c>
       <c r="C25">
-        <v>0.4229878742265498</v>
+        <v>0.268331829355418</v>
       </c>
       <c r="D25">
-        <v>0.04516948384829789</v>
+        <v>0.02994237257367871</v>
       </c>
       <c r="E25">
-        <v>0.04218155886809249</v>
+        <v>0.1170946956531704</v>
       </c>
       <c r="F25">
-        <v>0.7098745601269201</v>
+        <v>0.8388910036447612</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1711668307375902</v>
+        <v>0.1928710261636013</v>
       </c>
       <c r="M25">
-        <v>0.4563469584233601</v>
+        <v>0.2423735511173675</v>
       </c>
       <c r="N25">
-        <v>0.6978044715053571</v>
+        <v>1.356767530887716</v>
       </c>
       <c r="O25">
-        <v>2.053398765520257</v>
+        <v>2.885514754911839</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_154/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_154/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9998340106875503</v>
+        <v>2.246619161630861</v>
       </c>
       <c r="C2">
-        <v>0.2532704065238534</v>
+        <v>0.3779286343209094</v>
       </c>
       <c r="D2">
-        <v>0.02824048846233751</v>
+        <v>0.0402735523582507</v>
       </c>
       <c r="E2">
-        <v>0.1184694903237427</v>
+        <v>0.0442018526408785</v>
       </c>
       <c r="F2">
-        <v>0.8287855757083591</v>
+        <v>0.6332048692787922</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1886793512133664</v>
+        <v>0.149843523018248</v>
       </c>
       <c r="M2">
-        <v>0.2225080754306177</v>
+        <v>0.3833657973108302</v>
       </c>
       <c r="N2">
-        <v>1.376402873543597</v>
+        <v>0.743280458542344</v>
       </c>
       <c r="O2">
-        <v>2.873585931596779</v>
+        <v>1.871624390762179</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9154134562347451</v>
+        <v>1.952254531628085</v>
       </c>
       <c r="C3">
-        <v>0.2429535528171414</v>
+        <v>0.3473397359687596</v>
       </c>
       <c r="D3">
-        <v>0.0270744962661098</v>
+        <v>0.03694291827814311</v>
       </c>
       <c r="E3">
-        <v>0.1194771694375198</v>
+        <v>0.04568582332841098</v>
       </c>
       <c r="F3">
-        <v>0.8230670106637845</v>
+        <v>0.5840341277286925</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1860235826453902</v>
+        <v>0.1357651283667209</v>
       </c>
       <c r="M3">
-        <v>0.209200329540252</v>
+        <v>0.3343424190330495</v>
       </c>
       <c r="N3">
-        <v>1.390789325767411</v>
+        <v>0.776449192832569</v>
       </c>
       <c r="O3">
-        <v>2.869311570831997</v>
+        <v>1.757529486177475</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8637903451067643</v>
+        <v>1.772131128265329</v>
       </c>
       <c r="C4">
-        <v>0.236565522160376</v>
+        <v>0.3285180660314069</v>
       </c>
       <c r="D4">
-        <v>0.02635243062194093</v>
+        <v>0.0348906796682158</v>
       </c>
       <c r="E4">
-        <v>0.120133443549435</v>
+        <v>0.0466520918132316</v>
       </c>
       <c r="F4">
-        <v>0.820112033225648</v>
+        <v>0.5550760381392834</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1844843663126738</v>
+        <v>0.1272845635227711</v>
       </c>
       <c r="M4">
-        <v>0.2011066445347822</v>
+        <v>0.3044146758205173</v>
       </c>
       <c r="N4">
-        <v>1.400155429781734</v>
+        <v>0.7979197846923682</v>
       </c>
       <c r="O4">
-        <v>2.868562608234498</v>
+        <v>1.691523377360937</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8428078309320028</v>
+        <v>1.698854818290101</v>
       </c>
       <c r="C5">
-        <v>0.2339490491903575</v>
+        <v>0.3208361804257152</v>
       </c>
       <c r="D5">
-        <v>0.0260566556715176</v>
+        <v>0.03405243902128419</v>
       </c>
       <c r="E5">
-        <v>0.1204103349571142</v>
+        <v>0.04705949027053435</v>
       </c>
       <c r="F5">
-        <v>0.8190476355548952</v>
+        <v>0.543565561389947</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1838801668474517</v>
+        <v>0.1238670406049067</v>
       </c>
       <c r="M5">
-        <v>0.1978280302640059</v>
+        <v>0.2922565918756845</v>
       </c>
       <c r="N5">
-        <v>1.404106192046054</v>
+        <v>0.8069393714939324</v>
       </c>
       <c r="O5">
-        <v>2.868728632849013</v>
+        <v>1.665582427165901</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8393270153734989</v>
+        <v>1.686694078801537</v>
       </c>
       <c r="C6">
-        <v>0.2335137867595876</v>
+        <v>0.3195598386733565</v>
       </c>
       <c r="D6">
-        <v>0.02600745072112431</v>
+        <v>0.03391312942983049</v>
       </c>
       <c r="E6">
-        <v>0.1204568839050761</v>
+        <v>0.047127955788556</v>
       </c>
       <c r="F6">
-        <v>0.8188793327823305</v>
+        <v>0.541671220142014</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1837812332829003</v>
+        <v>0.123301803113435</v>
       </c>
       <c r="M6">
-        <v>0.1972848097824595</v>
+        <v>0.2902398675158437</v>
       </c>
       <c r="N6">
-        <v>1.40477030729345</v>
+        <v>0.8084531662629608</v>
       </c>
       <c r="O6">
-        <v>2.868784651350097</v>
+        <v>1.661331032916706</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8635071461042685</v>
+        <v>1.771142428658749</v>
       </c>
       <c r="C7">
-        <v>0.2365302891510765</v>
+        <v>0.3284145159817626</v>
       </c>
       <c r="D7">
-        <v>0.02634844785949397</v>
+        <v>0.03487938285849168</v>
       </c>
       <c r="E7">
-        <v>0.1201371395088096</v>
+        <v>0.04665753120328509</v>
       </c>
       <c r="F7">
-        <v>0.820097112548126</v>
+        <v>0.5549196544073922</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1844761244960509</v>
+        <v>0.1272383217857964</v>
       </c>
       <c r="M7">
-        <v>0.2010623482783416</v>
+        <v>0.3042505622969642</v>
       </c>
       <c r="N7">
-        <v>1.400208168545728</v>
+        <v>0.7980403420311362</v>
       </c>
       <c r="O7">
-        <v>2.868562939805258</v>
+        <v>1.691169731807605</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9706825803161792</v>
+        <v>2.144975428511771</v>
       </c>
       <c r="C8">
-        <v>0.2497243277053229</v>
+        <v>0.3673887106154865</v>
       </c>
       <c r="D8">
-        <v>0.02783973895871128</v>
+        <v>0.03912656995864694</v>
       </c>
       <c r="E8">
-        <v>0.1188091501259581</v>
+        <v>0.04470195379295028</v>
       </c>
       <c r="F8">
-        <v>0.8266983059276853</v>
+        <v>0.6159826214856352</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1877446940578125</v>
+        <v>0.144953616272339</v>
       </c>
       <c r="M8">
-        <v>0.2179036217923382</v>
+        <v>0.3664231000499285</v>
       </c>
       <c r="N8">
-        <v>1.381252765874144</v>
+        <v>0.754482985184783</v>
       </c>
       <c r="O8">
-        <v>2.871722630734695</v>
+        <v>1.831406460449671</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.182491285369963</v>
+        <v>2.884433220618462</v>
       </c>
       <c r="C9">
-        <v>0.2751687732997539</v>
+        <v>0.4435940182098648</v>
       </c>
       <c r="D9">
-        <v>0.03071480266741844</v>
+        <v>0.04740441548842966</v>
       </c>
       <c r="E9">
-        <v>0.1165024395907093</v>
+        <v>0.04131456793415866</v>
       </c>
       <c r="F9">
-        <v>0.844062936668692</v>
+        <v>0.7464626325526922</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.194878148232867</v>
+        <v>0.1811254844958228</v>
       </c>
       <c r="M9">
-        <v>0.251536570215201</v>
+        <v>0.4899956586364169</v>
       </c>
       <c r="N9">
-        <v>1.348306900267978</v>
+        <v>0.6781977410226929</v>
       </c>
       <c r="O9">
-        <v>2.892822084706154</v>
+        <v>2.141459134000343</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.339068263590605</v>
+        <v>3.433834794989764</v>
       </c>
       <c r="C10">
-        <v>0.2935962198797597</v>
+        <v>0.4995932792273265</v>
       </c>
       <c r="D10">
-        <v>0.03279637627289844</v>
+        <v>0.05346530001963146</v>
       </c>
       <c r="E10">
-        <v>0.1149883120733781</v>
+        <v>0.0391134598220253</v>
       </c>
       <c r="F10">
-        <v>0.8595264885622527</v>
+        <v>0.8502866208373234</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2005588575999013</v>
+        <v>0.2087743302247134</v>
       </c>
       <c r="M10">
-        <v>0.2766111450380961</v>
+        <v>0.5822173517374694</v>
       </c>
       <c r="N10">
-        <v>1.326675052089094</v>
+        <v>0.6282514196879987</v>
       </c>
       <c r="O10">
-        <v>2.917446675793911</v>
+        <v>2.394964996488881</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.41050093536569</v>
+        <v>3.68564130193954</v>
       </c>
       <c r="C11">
-        <v>0.301920488724619</v>
+        <v>0.5251074816853816</v>
       </c>
       <c r="D11">
-        <v>0.03373653787130593</v>
+        <v>0.05622052344781281</v>
       </c>
       <c r="E11">
-        <v>0.1143385579396892</v>
+        <v>0.03817802794206937</v>
       </c>
       <c r="F11">
-        <v>0.8671514069051227</v>
+        <v>0.8995857835969332</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2032383865866905</v>
+        <v>0.221633463995488</v>
       </c>
       <c r="M11">
-        <v>0.2880963012296078</v>
+        <v>0.6245850193151696</v>
       </c>
       <c r="N11">
-        <v>1.317392492080899</v>
+        <v>0.6069816276658102</v>
       </c>
       <c r="O11">
-        <v>2.930638455276096</v>
+        <v>2.51691373726743</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.437579164946499</v>
+        <v>3.781312103106529</v>
       </c>
       <c r="C12">
-        <v>0.3050641451535796</v>
+        <v>0.5347779842530826</v>
       </c>
       <c r="D12">
-        <v>0.03409156606640096</v>
+        <v>0.05726379506415924</v>
       </c>
       <c r="E12">
-        <v>0.1140981144268727</v>
+        <v>0.0378335860043082</v>
       </c>
       <c r="F12">
-        <v>0.8701238267604623</v>
+        <v>0.9185819642676449</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2042667260072903</v>
+        <v>0.2265476215143138</v>
       </c>
       <c r="M12">
-        <v>0.2924565858272317</v>
+        <v>0.6406973794344069</v>
       </c>
       <c r="N12">
-        <v>1.313957642468516</v>
+        <v>0.5991475615677757</v>
       </c>
       <c r="O12">
-        <v>2.935920541193383</v>
+        <v>2.564139051087437</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.431746148260913</v>
+        <v>3.760692796436672</v>
       </c>
       <c r="C13">
-        <v>0.3043874858347806</v>
+        <v>0.5326948234963993</v>
       </c>
       <c r="D13">
-        <v>0.0340151487519762</v>
+        <v>0.0570391076370953</v>
       </c>
       <c r="E13">
-        <v>0.1141496491175662</v>
+        <v>0.03790732729856483</v>
       </c>
       <c r="F13">
-        <v>0.869479879389047</v>
+        <v>0.9144757203049636</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2040446479903437</v>
+        <v>0.2254872123096447</v>
       </c>
       <c r="M13">
-        <v>0.2915170297711924</v>
+        <v>0.6372240924716905</v>
       </c>
       <c r="N13">
-        <v>1.314693828891187</v>
+        <v>0.6008247730765746</v>
       </c>
       <c r="O13">
-        <v>2.934770192977822</v>
+        <v>2.553920159519208</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.412728119076348</v>
+        <v>3.693505559806283</v>
       </c>
       <c r="C14">
-        <v>0.3021792917476489</v>
+        <v>0.5259028840712858</v>
       </c>
       <c r="D14">
-        <v>0.03376576621605665</v>
+        <v>0.05630635424834907</v>
       </c>
       <c r="E14">
-        <v>0.1143186642358565</v>
+        <v>0.03814949250437483</v>
       </c>
       <c r="F14">
-        <v>0.8673942448907184</v>
+        <v>0.9011418634651989</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2033227152142985</v>
+        <v>0.2220368340297512</v>
       </c>
       <c r="M14">
-        <v>0.2884548030377232</v>
+        <v>0.6259091637708565</v>
       </c>
       <c r="N14">
-        <v>1.31710829631718</v>
+        <v>0.6063326284365402</v>
       </c>
       <c r="O14">
-        <v>2.931067268030972</v>
+        <v>2.520777471992631</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.401082665866568</v>
+        <v>3.652394186744118</v>
       </c>
       <c r="C15">
-        <v>0.3008255892684986</v>
+        <v>0.521743871473717</v>
       </c>
       <c r="D15">
-        <v>0.0336128826437232</v>
+        <v>0.05585751859946697</v>
       </c>
       <c r="E15">
-        <v>0.1144229204760743</v>
+        <v>0.03829910974874995</v>
       </c>
       <c r="F15">
-        <v>0.8661278103283507</v>
+        <v>0.8930180943290367</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2028822879688903</v>
+        <v>0.2199293265943538</v>
       </c>
       <c r="M15">
-        <v>0.2865805410885116</v>
+        <v>0.6189876582792238</v>
       </c>
       <c r="N15">
-        <v>1.318597679860268</v>
+        <v>0.6097354049933514</v>
       </c>
       <c r="O15">
-        <v>2.928836463947505</v>
+        <v>2.500615713375538</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.334403988727388</v>
+        <v>3.417420402832477</v>
       </c>
       <c r="C16">
-        <v>0.2930510194658211</v>
+        <v>0.4979269263957633</v>
       </c>
       <c r="D16">
-        <v>0.03273479691502246</v>
+        <v>0.05328521825779831</v>
       </c>
       <c r="E16">
-        <v>0.1150315597160443</v>
+        <v>0.03917594431747329</v>
       </c>
       <c r="F16">
-        <v>0.8590400742649393</v>
+        <v>0.8471089646858445</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2003856583486794</v>
+        <v>0.2079399727056455</v>
       </c>
       <c r="M16">
-        <v>0.2758621278752074</v>
+        <v>0.579457631234547</v>
       </c>
       <c r="N16">
-        <v>1.327292917792221</v>
+        <v>0.6296716293807734</v>
       </c>
       <c r="O16">
-        <v>2.916624646883719</v>
+        <v>2.387136510227577</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.293550397174499</v>
+        <v>3.273785415799523</v>
       </c>
       <c r="C17">
-        <v>0.2882664864480375</v>
+        <v>0.483328325640656</v>
       </c>
       <c r="D17">
-        <v>0.03219437568794348</v>
+        <v>0.05170684607970344</v>
       </c>
       <c r="E17">
-        <v>0.1154149308538646</v>
+        <v>0.03973094125609666</v>
       </c>
       <c r="F17">
-        <v>0.8548432971164885</v>
+        <v>0.8194958877910352</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1988784412296667</v>
+        <v>0.2006598918731015</v>
       </c>
       <c r="M17">
-        <v>0.2693067203457957</v>
+        <v>0.5553197840826698</v>
       </c>
       <c r="N17">
-        <v>1.332770071880859</v>
+        <v>0.6422815604708987</v>
       </c>
       <c r="O17">
-        <v>2.909643114798371</v>
+        <v>2.319282147660061</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.270071864072975</v>
+        <v>3.191344411629416</v>
       </c>
       <c r="C18">
-        <v>0.2855090555086974</v>
+        <v>0.4749351465596021</v>
       </c>
       <c r="D18">
-        <v>0.03188290485468315</v>
+        <v>0.05079881588419966</v>
       </c>
       <c r="E18">
-        <v>0.1156391099730074</v>
+        <v>0.04005634026818861</v>
       </c>
       <c r="F18">
-        <v>0.8524849927366915</v>
+        <v>0.8038063996244915</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1980205072332097</v>
+        <v>0.1964988123698532</v>
       </c>
       <c r="M18">
-        <v>0.2655436339572717</v>
+        <v>0.5414748754706267</v>
       </c>
       <c r="N18">
-        <v>1.335972893777637</v>
+        <v>0.6496702910121428</v>
       </c>
       <c r="O18">
-        <v>2.905814794237386</v>
+        <v>2.280871977564004</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.262125801635136</v>
+        <v>3.1634598334918</v>
       </c>
       <c r="C19">
-        <v>0.2845744979074993</v>
+        <v>0.4720938802643957</v>
       </c>
       <c r="D19">
-        <v>0.0317773377277959</v>
+        <v>0.05049133356892099</v>
       </c>
       <c r="E19">
-        <v>0.1157156444658929</v>
+        <v>0.04016756681808209</v>
       </c>
       <c r="F19">
-        <v>0.851696052074729</v>
+        <v>0.7985264442686173</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1977315689491945</v>
+        <v>0.1950943244857939</v>
       </c>
       <c r="M19">
-        <v>0.2642707963951025</v>
+        <v>0.536793587312701</v>
       </c>
       <c r="N19">
-        <v>1.337066331576068</v>
+        <v>0.6521949747217164</v>
       </c>
       <c r="O19">
-        <v>2.904550739695537</v>
+        <v>2.267970353653368</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.297897335878531</v>
+        <v>3.289057266414147</v>
       </c>
       <c r="C20">
-        <v>0.2887763779035311</v>
+        <v>0.484881982673727</v>
       </c>
       <c r="D20">
-        <v>0.03225197029040316</v>
+        <v>0.0518748849837678</v>
       </c>
       <c r="E20">
-        <v>0.1153737401375583</v>
+        <v>0.03967121911369098</v>
       </c>
       <c r="F20">
-        <v>0.8552842989633973</v>
+        <v>0.8224151793683916</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1990379583027675</v>
+        <v>0.2014321247183375</v>
       </c>
       <c r="M20">
-        <v>0.2700037891322395</v>
+        <v>0.5578852478992857</v>
       </c>
       <c r="N20">
-        <v>1.332181584900418</v>
+        <v>0.6409250716927559</v>
       </c>
       <c r="O20">
-        <v>2.910366925250315</v>
+        <v>2.326440762734222</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.418313419164519</v>
+        <v>3.71323108234958</v>
       </c>
       <c r="C21">
-        <v>0.3028281255290608</v>
+        <v>0.5278975756330055</v>
       </c>
       <c r="D21">
-        <v>0.03383904294741313</v>
+        <v>0.05652158192871326</v>
       </c>
       <c r="E21">
-        <v>0.1142688683651514</v>
+        <v>0.03807809452726474</v>
       </c>
       <c r="F21">
-        <v>0.8680045376944179</v>
+        <v>0.9050491965974174</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2035343940470682</v>
+        <v>0.2230490460910914</v>
       </c>
       <c r="M21">
-        <v>0.289353953445719</v>
+        <v>0.6292306953506284</v>
       </c>
       <c r="N21">
-        <v>1.316396930345135</v>
+        <v>0.6047087605024046</v>
       </c>
       <c r="O21">
-        <v>2.932147123433481</v>
+        <v>2.530483119673477</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.497176238783595</v>
+        <v>3.992326123832981</v>
       </c>
       <c r="C22">
-        <v>0.3119617681347506</v>
+        <v>0.556063855511411</v>
       </c>
       <c r="D22">
-        <v>0.03487050392575952</v>
+        <v>0.05955815579704193</v>
       </c>
       <c r="E22">
-        <v>0.1135794330497495</v>
+        <v>0.03709409455824986</v>
       </c>
       <c r="F22">
-        <v>0.8768136165092386</v>
+        <v>0.9609807862818371</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2065526718714779</v>
+        <v>0.2374395751086809</v>
       </c>
       <c r="M22">
-        <v>0.302065042221912</v>
+        <v>0.6762638133927226</v>
       </c>
       <c r="N22">
-        <v>1.306548548254383</v>
+        <v>0.5823296665950295</v>
       </c>
       <c r="O22">
-        <v>2.948052759101927</v>
+        <v>2.669981640116561</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.455071080470532</v>
+        <v>3.843180070905646</v>
       </c>
       <c r="C23">
-        <v>0.3070915963349137</v>
+        <v>0.5410250237424918</v>
       </c>
       <c r="D23">
-        <v>0.03432052917937511</v>
+        <v>0.05793743621763525</v>
       </c>
       <c r="E23">
-        <v>0.1139444117434643</v>
+        <v>0.037613931172924</v>
       </c>
       <c r="F23">
-        <v>0.8720666524777698</v>
+        <v>0.9309423095453866</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2049344937795468</v>
+        <v>0.2297335795114321</v>
       </c>
       <c r="M23">
-        <v>0.2952750460107012</v>
+        <v>0.6511211984255212</v>
       </c>
       <c r="N23">
-        <v>1.311761999376259</v>
+        <v>0.5941516605626092</v>
       </c>
       <c r="O23">
-        <v>2.939410560490671</v>
+        <v>2.594933805937188</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.29593205756845</v>
+        <v>3.282152440558548</v>
       </c>
       <c r="C24">
-        <v>0.2885458769583238</v>
+        <v>0.4841795753350766</v>
       </c>
       <c r="D24">
-        <v>0.03222593418452391</v>
+        <v>0.05179891648863588</v>
       </c>
       <c r="E24">
-        <v>0.1153923507044112</v>
+        <v>0.0396981998203918</v>
       </c>
       <c r="F24">
-        <v>0.8550847523390104</v>
+        <v>0.8210947916773392</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1989658138887052</v>
+        <v>0.2010829227616</v>
       </c>
       <c r="M24">
-        <v>0.2696886265495309</v>
+        <v>0.5567253018847609</v>
       </c>
       <c r="N24">
-        <v>1.332447471864882</v>
+        <v>0.6415379078368062</v>
       </c>
       <c r="O24">
-        <v>2.910039112895078</v>
+        <v>2.323202490291095</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.125019938851722</v>
+        <v>2.683486720948224</v>
       </c>
       <c r="C25">
-        <v>0.268331829355418</v>
+        <v>0.4229878742265498</v>
       </c>
       <c r="D25">
-        <v>0.02994237257367871</v>
+        <v>0.0451694838481842</v>
       </c>
       <c r="E25">
-        <v>0.1170946956531704</v>
+        <v>0.0421815588681107</v>
       </c>
       <c r="F25">
-        <v>0.8388910036447612</v>
+        <v>0.7098745601269201</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1928710261636013</v>
+        <v>0.1711668307375049</v>
       </c>
       <c r="M25">
-        <v>0.2423735511173675</v>
+        <v>0.456346958423353</v>
       </c>
       <c r="N25">
-        <v>1.356767530887716</v>
+        <v>0.6978044715053642</v>
       </c>
       <c r="O25">
-        <v>2.885514754911839</v>
+        <v>2.053398765520257</v>
       </c>
     </row>
   </sheetData>
